--- a/Buding_Secondary_TestCases/Weiche/布丁微车V3.0.0测试用例v1.2修订.xlsx
+++ b/Buding_Secondary_TestCases/Weiche/布丁微车V3.0.0测试用例v1.2修订.xlsx
@@ -4,30 +4,117 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11520" tabRatio="631"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11520" tabRatio="631" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="changelog" sheetId="11" r:id="rId1"/>
-    <sheet name="首页M" sheetId="4" r:id="rId2"/>
-    <sheet name="OnRoadOR" sheetId="13" r:id="rId3"/>
-    <sheet name="车辆管理CM" sheetId="5" r:id="rId4"/>
-    <sheet name="车辆违章列表CVL" sheetId="9" r:id="rId5"/>
-    <sheet name="附近F" sheetId="6" r:id="rId6"/>
-    <sheet name="账户与设置AS" sheetId="2" r:id="rId7"/>
-    <sheet name="新增检查点NC" sheetId="1" r:id="rId8"/>
-    <sheet name="高发违章周排行HC" sheetId="3" r:id="rId9"/>
-    <sheet name="推送P" sheetId="12" r:id="rId10"/>
-    <sheet name="消息盒子MB" sheetId="10" r:id="rId11"/>
-    <sheet name="行车记录仪TR" sheetId="7" r:id="rId12"/>
-    <sheet name="其他O" sheetId="8" r:id="rId13"/>
+    <sheet name="广告页SP" sheetId="16" r:id="rId2"/>
+    <sheet name="首页M" sheetId="4" r:id="rId3"/>
+    <sheet name="OnRoadOR" sheetId="13" r:id="rId4"/>
+    <sheet name="车辆管理CM" sheetId="5" r:id="rId5"/>
+    <sheet name="车辆违章列表CVL" sheetId="9" r:id="rId6"/>
+    <sheet name="附近F" sheetId="6" r:id="rId7"/>
+    <sheet name="账户与设置AS" sheetId="2" r:id="rId8"/>
+    <sheet name="新增检查点NC" sheetId="1" r:id="rId9"/>
+    <sheet name="高发违章周排行HC" sheetId="3" r:id="rId10"/>
+    <sheet name="推送P" sheetId="12" r:id="rId11"/>
+    <sheet name="消息盒子MB" sheetId="10" r:id="rId12"/>
+    <sheet name="行车记录仪TR" sheetId="7" r:id="rId13"/>
     <sheet name="issue转换" sheetId="14" r:id="rId14"/>
     <sheet name="网络性能测试NW" sheetId="15" r:id="rId15"/>
+    <sheet name="其他O" sheetId="8" r:id="rId16"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>liliang:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.fiddle</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>中勾选Allow remote computers to connect</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>.DUT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>和PC连接到一个AP（如：Weiche_Test保证DUT和PC在一个网段内）
+3.PC的cmd中输入ipconfig查看ipv4（如：192.168199.206）
+4.DUT设置代理（proxy server：192.168.199.206 port：8888）
+5.fiddle中勾选Simulate Modem Speeds</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -113,94 +200,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="D2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>liliang:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1.fiddle</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中勾选Allow remote computers to connect</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.DUT</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>和PC连接到一个AP（如：Weiche_Test保证DUT和PC在一个网段内）
-3.PC的cmd中输入ipconfig查看ipv4（如：192.168199.206）
-4.DUT设置代理（proxy server：192.168.199.206 port：8888）
-5.fiddle中勾选Simulate Modem Speeds</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="838">
   <si>
     <t>测试项</t>
   </si>
@@ -3681,100 +3682,6 @@
     <t>边界测试</t>
   </si>
   <si>
-    <t>预置条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Push【IOS only】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备已联网(不关心网络环境)
-开启通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用处于后台运行或未启动状态
-2. 后台推送Push消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备已联网(不关心网络环境)
-开启通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用不同系统版本的设备
-2. 执行以上用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用，应用页面显示正常
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备兼容性测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备已联网(不关心网络环境)
-开启通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用不同硬件配置的设备
-2. 执行以上用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络环境测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试设备已联网(不关心网络环境)
-开启通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过fiddle代理连接网络（android和ios配置方法相同，配置方法参考批注）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3797,10 +3704,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.配置方法参考预制条件批注
 2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
 3.搜索“request-trickle-delay”将300改为0,150改为0
@@ -3808,10 +3711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>边界测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3823,10 +3722,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GSM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3838,10 +3733,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WCDMA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3853,45 +3744,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可成功收取Push消息
-2. 如指定显示角标，则在桌面icon除显示该角标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 使用新版本对原有已发布版本进行覆盖安装测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 应用可正常使用，应用页面显示正常
-2. 数据加载正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络环境测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 执行功能测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试步骤：
 1. 同时添加两个需要输入验证码的城市（郑州、东莞）
 2. 保存后进入车辆违章列表页面，查看</t>
@@ -3928,18 +3780,6 @@
 1. 【兼容性】在ipadmini中安装测试版本
 2. 进入应用首页，点击已添加车辆列表中最后一辆车，展开车辆信息区域
 3. 查看</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统兼容性测试【IOS】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统兼容性测试【Android】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>003-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4398,12 +4238,319 @@
     <t>修订版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>广告页SlashPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 点击进入应用
+2. 查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片更新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+后台开启开关、设置广告页图片
+后台设置广告页有效期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+后台关闭开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功启动；启动过程无卡顿或长时间等待
+2. 启动后页面先显示启动页；
+启动页消失后直接进入应用首页；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+已开启定位服务
+后台开启开关、更换广告页图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功启动；启动过程无卡顿或长时间等待
+2. 启动后页面先显示启动页；
+启动页消失后显示广告页；
+广告页显示后台指定图片；
+前端可自动对图片进行拉伸操作，以完整显示图片；
+3. 在有效期内每次启动应用均可看到广告页图片；
+待超过有效期后，进入应用不再显示广告页图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功启动；启动过程无卡顿或长时间等待
+2. 启动后页面先显示启动页；
+启动页消失后显示广告页；
+广告页显示后台更新后的图片；
+前端可自动对图片进行拉伸操作，以完整显示图片；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预置条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Push【IOS only】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用处于后台运行或未启动状态
+2. 后台推送Push消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可成功收取Push消息
+2. 如指定显示角标，则在桌面icon除显示该角标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用新版本对原有已发布版本进行覆盖安装测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统兼容性测试【IOS】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用不同系统版本的设备
+2. 执行以上用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用，应用页面显示正常
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统兼容性测试【Android】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备兼容性测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 使用不同硬件配置的设备
+2. 执行以上用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用，应用页面显示正常
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络环境测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络环境测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试设备已联网(不关心网络环境)
+开启通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 执行功能测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据加载正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 应用可正常使用
+2. 数据无法完成更新，存在网络请求时，提示“网络存在问题”提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过fiddle代理连接网络（android和ios配置方法相同，配置方法参考批注）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为882,150改为929
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为10,150改为10
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为0,150改为0
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边界测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为2000,150改为2200
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为895,150改为940
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCDMA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配置方法参考预制条件批注
+2. 选择fiddle menu中Rules的"Customize Rules…"（或者Ctrl+R）
+3.搜索“request-trickle-delay”将300改为1950,150改为2150
+4.测试微车的刷新，定位等功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.数据正常返回（没有“无响应”Force close等异常）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnRoadOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004-008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告页SP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001-003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4527,14 +4674,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -4654,7 +4793,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4799,9 +4938,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4822,6 +4958,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4856,26 +5001,167 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="116">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6457,17 +6743,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.625" style="47" customWidth="1"/>
     <col min="2" max="2" width="24.875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="47" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="47" customWidth="1"/>
     <col min="4" max="4" width="14.875" style="47" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="47" customWidth="1"/>
     <col min="6" max="9" width="9" style="47"/>
@@ -6478,234 +6764,252 @@
     <col min="15" max="16384" width="9" style="47"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33">
+    <row r="1" spans="1:5" ht="16.5">
       <c r="A1" s="13" t="s">
         <v>324</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>810</v>
+        <v>774</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>353</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>785</v>
+        <v>749</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="B2" s="69" t="s">
-        <v>807</v>
-      </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="55" t="s">
+        <v>771</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="53" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="52" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="54" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="53" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="69" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="54" t="s">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="70"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="54" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="70"/>
-      <c r="B7" s="70"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="54" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="70"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="54" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="54" t="s">
-        <v>786</v>
-      </c>
-      <c r="E9" s="54" t="s">
-        <v>787</v>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="53" t="s">
+        <v>750</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="54" t="s">
-        <v>788</v>
-      </c>
-      <c r="E10" s="54" t="s">
-        <v>789</v>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="53" t="s">
+        <v>752</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="54" t="s">
-        <v>790</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>791</v>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="53" t="s">
+        <v>754</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="70"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="54" t="s">
-        <v>792</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>791</v>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="53" t="s">
+        <v>756</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="70"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="54" t="s">
-        <v>793</v>
-      </c>
-      <c r="E13" s="54" t="s">
-        <v>794</v>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="53" t="s">
+        <v>757</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="70"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="54" t="s">
-        <v>795</v>
-      </c>
-      <c r="E14" s="54" t="s">
-        <v>796</v>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="53" t="s">
+        <v>759</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="54" t="s">
-        <v>797</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>796</v>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="53" t="s">
+        <v>761</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="52" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="69" t="s">
-        <v>808</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>798</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
+      <c r="B16" s="55" t="s">
+        <v>772</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>762</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="53" t="s">
-        <v>799</v>
-      </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="54" t="s">
-        <v>800</v>
-      </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
+      <c r="A17" s="52" t="s">
+        <v>763</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="53" t="s">
+        <v>764</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="53" t="s">
-        <v>802</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>809</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>800</v>
-      </c>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="A18" s="72" t="s">
+        <v>766</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>773</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>834</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="53" t="s">
+        <v>836</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>837</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="C4:C15"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6714,6 +7018,341 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="66">
+      <c r="A2" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="66">
+      <c r="A3" s="61"/>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:8" ht="82.5">
+      <c r="A4" s="61"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:8" ht="82.5">
+      <c r="A5" s="61"/>
+      <c r="B5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:8" ht="66">
+      <c r="A6" s="61"/>
+      <c r="B6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:8" ht="66">
+      <c r="A7" s="61"/>
+      <c r="B7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:8" ht="33">
+      <c r="A8" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="66">
+      <c r="A9" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" ht="66">
+      <c r="A10" s="59"/>
+      <c r="B10" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:8" ht="99">
+      <c r="A11" s="60"/>
+      <c r="B11" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="64"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="H9:H11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="87" priority="21" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="22" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H10">
+    <cfRule type="cellIs" dxfId="85" priority="17" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="18" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="cellIs" dxfId="83" priority="15" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="16" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="81" priority="13" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="14" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="79" priority="11" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="12" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="77" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="75" priority="7" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="8" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="73" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="6" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="71" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="4" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:H11">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D8 D12:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -6754,7 +7393,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="66">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>228</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -6775,7 +7414,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="66">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -6794,7 +7433,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="66">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -6813,7 +7452,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="66">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="14" t="s">
         <v>66</v>
       </c>
@@ -6832,7 +7471,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="16.5">
-      <c r="A6" s="58"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="14" t="s">
         <v>209</v>
       </c>
@@ -6856,18 +7495,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G5">
-    <cfRule type="cellIs" dxfId="57" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6883,7 +7522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -6926,19 +7565,19 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="61" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="61" t="s">
         <v>137</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -6947,32 +7586,32 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="59"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="15" t="s">
         <v>143</v>
       </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="115.5">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="61" t="s">
         <v>139</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -6981,32 +7620,32 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="115.5">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="59"/>
+      <c r="C5" s="61"/>
       <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="59"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="15" t="s">
         <v>142</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="115.5">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="61" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="61" t="s">
         <v>262</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -7015,15 +7654,15 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="115.5">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="59"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="59"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="15" t="s">
         <v>141</v>
       </c>
@@ -7041,7 +7680,7 @@
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:7" s="41" customFormat="1" ht="33">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>455</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -7062,7 +7701,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="41" customFormat="1" ht="33">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="14" t="s">
         <v>55</v>
       </c>
@@ -7081,7 +7720,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="41" customFormat="1" ht="33">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
@@ -7100,7 +7739,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="41" customFormat="1" ht="66">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="26" t="s">
         <v>227</v>
       </c>
@@ -7131,10 +7770,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="53" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7154,7 +7793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
@@ -7197,7 +7836,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>144</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -7218,7 +7857,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -7237,7 +7876,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -7256,7 +7895,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="49.5">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -7275,7 +7914,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -7294,7 +7933,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="49.5">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -7313,7 +7952,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="115.5">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
@@ -7330,10 +7969,10 @@
         <v>193</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="62"/>
+      <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
@@ -7350,10 +7989,10 @@
         <v>190</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="62"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="82.5">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
@@ -7372,7 +8011,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="66">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="14" t="s">
         <v>163</v>
       </c>
@@ -7391,7 +8030,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="66">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="14" t="s">
         <v>175</v>
       </c>
@@ -7410,7 +8049,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="49.5">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="14" t="s">
         <v>176</v>
       </c>
@@ -7465,170 +8104,170 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="51" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="41" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="42" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:H9">
-    <cfRule type="cellIs" dxfId="49" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="39" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="40" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="cellIs" dxfId="47" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="37" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="38" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="35" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="36" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="cellIs" dxfId="43" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="33" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="34" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="31" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="32" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="39" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="29" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="30" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="37" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="28" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="35" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="25" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="26" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="21" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="20" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7644,376 +8283,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="33.125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>672</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="49.5">
-      <c r="A2" s="59" t="s">
-        <v>673</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>674</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>675</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="59"/>
-      <c r="B3" s="14" t="s">
-        <v>709</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>676</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:7" ht="49.5">
-      <c r="A4" s="59"/>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:7" ht="49.5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>679</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="59"/>
-      <c r="B6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>681</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:7" ht="49.5">
-      <c r="A7" s="59" t="s">
-        <v>714</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="59" t="s">
-        <v>684</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>685</v>
-      </c>
-      <c r="E7" s="59" t="s">
-        <v>715</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>686</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:7" ht="33">
-      <c r="A8" s="59"/>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" ht="33">
-      <c r="A9" s="59"/>
-      <c r="B9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="15" t="s">
-        <v>688</v>
-      </c>
-      <c r="G9" s="15"/>
-    </row>
-    <row r="10" spans="1:7" ht="33">
-      <c r="A10" s="59"/>
-      <c r="B10" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="G10" s="15"/>
-    </row>
-    <row r="11" spans="1:7" ht="33">
-      <c r="A11" s="59"/>
-      <c r="B11" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="15" t="s">
-        <v>690</v>
-      </c>
-      <c r="G11" s="15"/>
-    </row>
-    <row r="12" spans="1:7" ht="33">
-      <c r="A12" s="59"/>
-      <c r="B12" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="15" t="s">
-        <v>691</v>
-      </c>
-      <c r="G12" s="15"/>
-    </row>
-    <row r="13" spans="1:7" ht="99">
-      <c r="A13" s="59"/>
-      <c r="B13" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="D13" s="67" t="s">
-        <v>692</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>693</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="G13" s="15"/>
-    </row>
-    <row r="14" spans="1:7" ht="99">
-      <c r="A14" s="59"/>
-      <c r="B14" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>670</v>
-      </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="15" t="s">
-        <v>695</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="G14" s="15"/>
-    </row>
-    <row r="15" spans="1:7" ht="99">
-      <c r="A15" s="59"/>
-      <c r="B15" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="D15" s="67"/>
-      <c r="E15" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="G15" s="15"/>
-    </row>
-    <row r="16" spans="1:7" ht="99">
-      <c r="A16" s="59"/>
-      <c r="B16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>701</v>
-      </c>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" ht="99">
-      <c r="A17" s="59"/>
-      <c r="B17" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>702</v>
-      </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="15" t="s">
-        <v>703</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>704</v>
-      </c>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" ht="99">
-      <c r="A18" s="59"/>
-      <c r="B18" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>705</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="G18" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C7:C12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A7:A18"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G26:G53 H66 G67:G1048576 G1:G17">
-    <cfRule type="cellIs" dxfId="9" priority="19" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="20" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D67:D1048576 E66 D26:D53 D1:D12">
-      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G1048576 H66 G26:G53 G1:G17">
-      <formula1>"N,F,P"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8059,8 +8328,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="82.5">
-      <c r="A2" s="63" t="s">
-        <v>784</v>
+      <c r="A2" s="65" t="s">
+        <v>748</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
@@ -8080,7 +8349,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="64"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="14" t="s">
         <v>555</v>
       </c>
@@ -8099,7 +8368,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="33">
-      <c r="A4" s="64"/>
+      <c r="A4" s="66"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -8118,7 +8387,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="165.75" customHeight="1">
-      <c r="A5" s="64"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -8135,7 +8404,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="66">
-      <c r="A6" s="64"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -8154,7 +8423,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="66">
-      <c r="A7" s="64"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -8173,7 +8442,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="49.5">
-      <c r="A8" s="64"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
@@ -8192,7 +8461,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="66">
-      <c r="A9" s="64"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
@@ -8203,7 +8472,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>716</v>
+        <v>683</v>
       </c>
       <c r="F9" s="15" t="s">
         <v>568</v>
@@ -8211,7 +8480,7 @@
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="66">
-      <c r="A10" s="64"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
@@ -8230,7 +8499,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="66">
-      <c r="A11" s="64"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="14" t="s">
         <v>163</v>
       </c>
@@ -8249,7 +8518,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="66">
-      <c r="A12" s="64"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="14" t="s">
         <v>175</v>
       </c>
@@ -8268,7 +8537,7 @@
       <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="49.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="14" t="s">
         <v>176</v>
       </c>
@@ -8279,7 +8548,7 @@
         <v>22</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>717</v>
+        <v>684</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>662</v>
@@ -8287,7 +8556,7 @@
       <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="99">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="14" t="s">
         <v>269</v>
       </c>
@@ -8298,7 +8567,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>718</v>
+        <v>685</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>579</v>
@@ -8306,7 +8575,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="49.5">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="14" t="s">
         <v>281</v>
       </c>
@@ -8317,7 +8586,7 @@
         <v>22</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>582</v>
@@ -8325,7 +8594,7 @@
       <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="66">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="14" t="s">
         <v>282</v>
       </c>
@@ -8344,7 +8613,7 @@
       <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="49.5">
-      <c r="A17" s="64"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="14" t="s">
         <v>283</v>
       </c>
@@ -8363,7 +8632,7 @@
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="49.5">
-      <c r="A18" s="64"/>
+      <c r="A18" s="66"/>
       <c r="B18" s="14" t="s">
         <v>292</v>
       </c>
@@ -8382,7 +8651,7 @@
       <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="66">
-      <c r="A19" s="64"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="14" t="s">
         <v>293</v>
       </c>
@@ -8401,7 +8670,7 @@
       <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="82.5">
-      <c r="A20" s="64"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="14" t="s">
         <v>294</v>
       </c>
@@ -8420,7 +8689,7 @@
       <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="66">
-      <c r="A21" s="64"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="14" t="s">
         <v>580</v>
       </c>
@@ -8439,7 +8708,7 @@
       <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="66">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="14" t="s">
         <v>295</v>
       </c>
@@ -8458,7 +8727,7 @@
       <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="49.5">
-      <c r="A23" s="64"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="14" t="s">
         <v>296</v>
       </c>
@@ -8477,7 +8746,7 @@
       <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="66">
-      <c r="A24" s="64"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="14" t="s">
         <v>306</v>
       </c>
@@ -8496,7 +8765,7 @@
       <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="66">
-      <c r="A25" s="64"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="14" t="s">
         <v>307</v>
       </c>
@@ -8515,7 +8784,7 @@
       <c r="G25" s="15"/>
     </row>
     <row r="26" spans="1:7" ht="66">
-      <c r="A26" s="64"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="14" t="s">
         <v>308</v>
       </c>
@@ -8534,7 +8803,7 @@
       <c r="G26" s="15"/>
     </row>
     <row r="27" spans="1:7" ht="66">
-      <c r="A27" s="64"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="14" t="s">
         <v>314</v>
       </c>
@@ -8553,7 +8822,7 @@
       <c r="G27" s="15"/>
     </row>
     <row r="28" spans="1:7" ht="66">
-      <c r="A28" s="64"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="14" t="s">
         <v>603</v>
       </c>
@@ -8572,7 +8841,7 @@
       <c r="G28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="82.5">
-      <c r="A29" s="64"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="14" t="s">
         <v>604</v>
       </c>
@@ -8583,7 +8852,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>720</v>
+        <v>687</v>
       </c>
       <c r="F29" s="15" t="s">
         <v>624</v>
@@ -8591,7 +8860,7 @@
       <c r="G29" s="15"/>
     </row>
     <row r="30" spans="1:7" ht="82.5">
-      <c r="A30" s="64"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="14" t="s">
         <v>315</v>
       </c>
@@ -8602,7 +8871,7 @@
         <v>22</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>721</v>
+        <v>688</v>
       </c>
       <c r="F30" s="15" t="s">
         <v>626</v>
@@ -8610,7 +8879,7 @@
       <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="99">
-      <c r="A31" s="64"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="14" t="s">
         <v>323</v>
       </c>
@@ -8629,7 +8898,7 @@
       <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="82.5">
-      <c r="A32" s="64"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="14" t="s">
         <v>619</v>
       </c>
@@ -8648,7 +8917,7 @@
       <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="82.5">
-      <c r="A33" s="64"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="14" t="s">
         <v>361</v>
       </c>
@@ -8667,7 +8936,7 @@
       <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="66">
-      <c r="A34" s="64"/>
+      <c r="A34" s="66"/>
       <c r="B34" s="14" t="s">
         <v>372</v>
       </c>
@@ -8686,7 +8955,7 @@
       <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="82.5">
-      <c r="A35" s="64"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="14" t="s">
         <v>373</v>
       </c>
@@ -8705,7 +8974,7 @@
       <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="66">
-      <c r="A36" s="64"/>
+      <c r="A36" s="66"/>
       <c r="B36" s="14" t="s">
         <v>374</v>
       </c>
@@ -8724,7 +8993,7 @@
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="82.5">
-      <c r="A37" s="64"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="14" t="s">
         <v>647</v>
       </c>
@@ -8743,7 +9012,7 @@
       <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="66">
-      <c r="A38" s="64"/>
+      <c r="A38" s="66"/>
       <c r="B38" s="14" t="s">
         <v>648</v>
       </c>
@@ -8762,7 +9031,7 @@
       <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="66">
-      <c r="A39" s="64"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="14" t="s">
         <v>649</v>
       </c>
@@ -8781,9 +9050,9 @@
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="66">
-      <c r="A40" s="64"/>
+      <c r="A40" s="66"/>
       <c r="B40" s="14" t="s">
-        <v>782</v>
+        <v>746</v>
       </c>
       <c r="C40" s="46" t="s">
         <v>656</v>
@@ -8800,9 +9069,9 @@
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" ht="66">
-      <c r="A41" s="64"/>
+      <c r="A41" s="66"/>
       <c r="B41" s="14" t="s">
-        <v>783</v>
+        <v>747</v>
       </c>
       <c r="C41" s="46" t="s">
         <v>656</v>
@@ -8824,18 +9093,18 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G40">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8896,8 +9165,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="99">
-      <c r="A2" s="56" t="s">
-        <v>801</v>
+      <c r="A2" s="58" t="s">
+        <v>765</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>8</v>
@@ -8905,101 +9174,101 @@
       <c r="C2" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>692</v>
+      <c r="D2" s="69" t="s">
+        <v>672</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="115.5">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="14" t="s">
         <v>555</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="17" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="115.5">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="17" t="s">
-        <v>697</v>
+        <v>676</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" ht="132">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="D5" s="68"/>
+        <v>677</v>
+      </c>
+      <c r="D5" s="69"/>
       <c r="E5" s="17" t="s">
-        <v>700</v>
+        <v>678</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="115.5">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="D6" s="68"/>
+        <v>679</v>
+      </c>
+      <c r="D6" s="69"/>
       <c r="E6" s="17" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="132">
-      <c r="A7" s="58"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="55" t="s">
-        <v>705</v>
-      </c>
-      <c r="D7" s="68"/>
+      <c r="C7" s="54" t="s">
+        <v>681</v>
+      </c>
+      <c r="D7" s="69"/>
       <c r="E7" s="17" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="G7" s="55"/>
+        <v>674</v>
+      </c>
+      <c r="G7" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9008,10 +9277,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G6">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9028,7 +9297,504 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
+    <col min="3" max="4" width="16.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="33.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.5">
+      <c r="A2" s="61" t="s">
+        <v>788</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>792</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" s="61"/>
+      <c r="B3" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="49.5">
+      <c r="A4" s="61"/>
+      <c r="B4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" ht="49.5">
+      <c r="A5" s="61"/>
+      <c r="B5" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>800</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" ht="49.5">
+      <c r="A6" s="61"/>
+      <c r="B6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>806</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" ht="49.5">
+      <c r="A7" s="61" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>809</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>810</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>811</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" ht="33">
+      <c r="A8" s="61"/>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="61"/>
+      <c r="D8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="61"/>
+      <c r="F8" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="33">
+      <c r="A9" s="61"/>
+      <c r="B9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="61"/>
+      <c r="F9" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="33">
+      <c r="A10" s="61"/>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="61"/>
+      <c r="F10" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" ht="33">
+      <c r="A11" s="61"/>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="61"/>
+      <c r="D11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="15" t="s">
+        <v>816</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="33">
+      <c r="A12" s="61"/>
+      <c r="B12" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" ht="99">
+      <c r="A13" s="61"/>
+      <c r="B13" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>820</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" ht="99">
+      <c r="A14" s="61"/>
+      <c r="B14" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" ht="99">
+      <c r="A15" s="61"/>
+      <c r="B15" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="15" t="s">
+        <v>823</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="99">
+      <c r="A16" s="61"/>
+      <c r="B16" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>825</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="15" t="s">
+        <v>826</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" ht="99">
+      <c r="A17" s="61"/>
+      <c r="B17" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>828</v>
+      </c>
+      <c r="D17" s="70"/>
+      <c r="E17" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>830</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="99">
+      <c r="A18" s="61"/>
+      <c r="B18" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>831</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="G18" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C7:C12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="D13:D18"/>
+    <mergeCell ref="A7:A18"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G26:G53 H66 G67:G1048576 G1:G17">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D67:D1048576 E66 D26:D53 D1:D12">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G67:G1048576 H66 G26:G53 G1:G17">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="24.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="31.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="31.125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="115.5">
+      <c r="A2" s="61" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>781</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>785</v>
+      </c>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" s="61"/>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>783</v>
+      </c>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" ht="82.5">
+      <c r="A4" s="61"/>
+      <c r="B4" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>784</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="G4" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="equal">
+      <formula>"P"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D1048576">
+      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
+      <formula1>"N,F,P"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -9072,7 +9838,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="33">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -9093,7 +9859,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="115.5">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -9112,7 +9878,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" s="10" customFormat="1" ht="33">
-      <c r="A4" s="58"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="14" t="s">
         <v>394</v>
       </c>
@@ -9142,7 +9908,7 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="132">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="58" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="14" t="s">
@@ -9163,7 +9929,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="14" t="s">
         <v>390</v>
       </c>
@@ -9182,7 +9948,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" s="38" customFormat="1" ht="33">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="36" t="s">
         <v>209</v>
       </c>
@@ -9201,7 +9967,7 @@
       <c r="G8" s="37"/>
     </row>
     <row r="9" spans="1:7" s="40" customFormat="1" ht="33">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="39" t="s">
         <v>17</v>
       </c>
@@ -9220,7 +9986,7 @@
       <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="14" t="s">
         <v>358</v>
       </c>
@@ -9239,7 +10005,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="14" t="s">
         <v>55</v>
       </c>
@@ -9258,7 +10024,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="14" t="s">
         <v>55</v>
       </c>
@@ -9283,10 +10049,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9303,12 +10069,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9345,7 +10111,7 @@
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="231">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>244</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -9367,7 +10133,7 @@
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="231">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="14" t="s">
         <v>243</v>
       </c>
@@ -9387,7 +10153,7 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="66">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -9407,7 +10173,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="14" t="s">
         <v>465</v>
       </c>
@@ -9427,7 +10193,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="49.5">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="14" t="s">
         <v>466</v>
       </c>
@@ -9447,12 +10213,12 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" s="35" customFormat="1" ht="33">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>363</v>
@@ -9461,58 +10227,58 @@
         <v>370</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="G7" s="33"/>
-      <c r="H7" s="49"/>
+      <c r="H7" s="48"/>
     </row>
     <row r="8" spans="1:8" s="35" customFormat="1" ht="33">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="34" t="s">
         <v>465</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="D8" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="49"/>
+      <c r="H8" s="48"/>
     </row>
     <row r="9" spans="1:8" s="35" customFormat="1" ht="49.5">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="34" t="s">
         <v>466</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>763</v>
+        <v>727</v>
       </c>
       <c r="D9" s="33" t="s">
         <v>367</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>773</v>
+        <v>737</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>778</v>
+        <v>742</v>
       </c>
       <c r="G9" s="33"/>
-      <c r="H9" s="49"/>
+      <c r="H9" s="48"/>
     </row>
     <row r="10" spans="1:8" s="35" customFormat="1" ht="33">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="34" t="s">
-        <v>760</v>
+        <v>724</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>24</v>
@@ -9521,113 +10287,113 @@
         <v>370</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="49"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" s="35" customFormat="1" ht="33">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="34" t="s">
-        <v>776</v>
+        <v>740</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>764</v>
+        <v>728</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>771</v>
+        <v>735</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>772</v>
+        <v>736</v>
       </c>
       <c r="G11" s="33"/>
-      <c r="H11" s="49"/>
+      <c r="H11" s="48"/>
     </row>
     <row r="12" spans="1:8" s="35" customFormat="1" ht="82.5">
-      <c r="A12" s="59"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="34" t="s">
-        <v>777</v>
+        <v>741</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>765</v>
+        <v>729</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>774</v>
+        <v>738</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>775</v>
+        <v>739</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="49"/>
+      <c r="H12" s="48"/>
     </row>
     <row r="13" spans="1:8" s="35" customFormat="1" ht="82.5">
-      <c r="A13" s="59"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="34" t="s">
-        <v>779</v>
+        <v>743</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>766</v>
+        <v>730</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>770</v>
+        <v>734</v>
       </c>
       <c r="G13" s="33"/>
-      <c r="H13" s="49"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:8" s="35" customFormat="1" ht="82.5">
-      <c r="A14" s="59"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="34" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>767</v>
+        <v>731</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>762</v>
+        <v>726</v>
       </c>
       <c r="F14" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="G14" s="33"/>
+      <c r="H14" s="48"/>
+    </row>
+    <row r="15" spans="1:8" s="35" customFormat="1" ht="82.5">
+      <c r="A15" s="61"/>
+      <c r="B15" s="34" t="s">
+        <v>767</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>768</v>
       </c>
-      <c r="G14" s="33"/>
-      <c r="H14" s="49"/>
-    </row>
-    <row r="15" spans="1:8" s="35" customFormat="1" ht="82.5">
-      <c r="A15" s="59"/>
-      <c r="B15" s="34" t="s">
-        <v>803</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>804</v>
-      </c>
       <c r="D15" s="33" t="s">
-        <v>761</v>
+        <v>725</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>806</v>
+        <v>770</v>
       </c>
       <c r="G15" s="33"/>
-      <c r="H15" s="49"/>
+      <c r="H15" s="48"/>
     </row>
     <row r="16" spans="1:8" ht="82.5">
-      <c r="A16" s="59"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="14" t="s">
         <v>15</v>
       </c>
@@ -9647,7 +10413,7 @@
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="33">
-      <c r="A17" s="59"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
@@ -9667,7 +10433,7 @@
       <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="99">
-      <c r="A18" s="59"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="14" t="s">
         <v>54</v>
       </c>
@@ -9687,7 +10453,7 @@
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="33">
-      <c r="A19" s="59"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="14" t="s">
         <v>55</v>
       </c>
@@ -9707,7 +10473,7 @@
       <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="82.5">
-      <c r="A20" s="59"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="14" t="s">
         <v>513</v>
       </c>
@@ -9727,7 +10493,7 @@
       <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="49.5">
-      <c r="A21" s="59"/>
+      <c r="A21" s="61"/>
       <c r="B21" s="14" t="s">
         <v>56</v>
       </c>
@@ -9738,16 +10504,16 @@
         <v>22</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>729</v>
+        <v>693</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>726</v>
+        <v>690</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="49.5">
-      <c r="A22" s="59"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="14" t="s">
         <v>484</v>
       </c>
@@ -9758,18 +10524,18 @@
         <v>22</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>751</v>
+        <v>715</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>755</v>
+        <v>719</v>
       </c>
       <c r="G22" s="15"/>
       <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="49.5">
-      <c r="A23" s="59"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="14" t="s">
-        <v>725</v>
+        <v>689</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>485</v>
@@ -9778,18 +10544,18 @@
         <v>22</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>756</v>
+        <v>720</v>
       </c>
       <c r="G23" s="15"/>
       <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="33">
-      <c r="A24" s="59"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="14" t="s">
-        <v>730</v>
+        <v>694</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>486</v>
@@ -9798,18 +10564,18 @@
         <v>22</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>727</v>
+        <v>691</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>728</v>
+        <v>692</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="49.5">
-      <c r="A25" s="59"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="14" t="s">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>486</v>
@@ -9818,18 +10584,18 @@
         <v>22</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>750</v>
+        <v>714</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>754</v>
+        <v>718</v>
       </c>
       <c r="G25" s="15"/>
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="66">
-      <c r="A26" s="59"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="14" t="s">
-        <v>732</v>
+        <v>696</v>
       </c>
       <c r="C26" s="33" t="s">
         <v>486</v>
@@ -9838,18 +10604,18 @@
         <v>22</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>753</v>
+        <v>717</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>757</v>
+        <v>721</v>
       </c>
       <c r="G26" s="15"/>
       <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="66">
-      <c r="A27" s="59"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="14" t="s">
-        <v>749</v>
+        <v>713</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>486</v>
@@ -9858,16 +10624,16 @@
         <v>22</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>752</v>
+        <v>716</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>758</v>
+        <v>722</v>
       </c>
       <c r="G27" s="15"/>
       <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" ht="49.5">
-      <c r="A28" s="59"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="14" t="s">
         <v>163</v>
       </c>
@@ -9881,13 +10647,13 @@
         <v>285</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>748</v>
+        <v>712</v>
       </c>
       <c r="G28" s="15"/>
       <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" ht="33">
-      <c r="A29" s="59"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="36" t="s">
         <v>271</v>
       </c>
@@ -9907,7 +10673,7 @@
       <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" s="42" customFormat="1" ht="49.5">
-      <c r="A30" s="59"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="39" t="s">
         <v>176</v>
       </c>
@@ -9924,10 +10690,10 @@
         <v>461</v>
       </c>
       <c r="G30" s="36"/>
-      <c r="H30" s="50"/>
+      <c r="H30" s="49"/>
     </row>
     <row r="31" spans="1:8" ht="82.5">
-      <c r="A31" s="59"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="14" t="s">
         <v>269</v>
       </c>
@@ -9947,7 +10713,7 @@
       <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="66">
-      <c r="A32" s="59"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="14" t="s">
         <v>494</v>
       </c>
@@ -9967,7 +10733,7 @@
       <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" ht="49.5">
-      <c r="A33" s="59"/>
+      <c r="A33" s="61"/>
       <c r="B33" s="14" t="s">
         <v>495</v>
       </c>
@@ -9987,7 +10753,7 @@
       <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" ht="33">
-      <c r="A34" s="59"/>
+      <c r="A34" s="61"/>
       <c r="B34" s="14" t="s">
         <v>496</v>
       </c>
@@ -10007,7 +10773,7 @@
       <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" ht="49.5">
-      <c r="A35" s="59"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="14" t="s">
         <v>281</v>
       </c>
@@ -10027,7 +10793,7 @@
       <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" ht="33">
-      <c r="A36" s="59"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="14" t="s">
         <v>493</v>
       </c>
@@ -10047,7 +10813,7 @@
       <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" ht="33">
-      <c r="A37" s="59"/>
+      <c r="A37" s="61"/>
       <c r="B37" s="14" t="s">
         <v>282</v>
       </c>
@@ -10067,7 +10833,7 @@
       <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" ht="49.5">
-      <c r="A38" s="59"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="14" t="s">
         <v>283</v>
       </c>
@@ -10087,7 +10853,7 @@
       <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="66">
-      <c r="A39" s="59"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="14" t="s">
         <v>292</v>
       </c>
@@ -10107,7 +10873,7 @@
       <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" ht="132">
-      <c r="A40" s="59"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="14" t="s">
         <v>293</v>
       </c>
@@ -10127,7 +10893,7 @@
       <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" ht="82.5">
-      <c r="A41" s="59"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="14" t="s">
         <v>294</v>
       </c>
@@ -10147,7 +10913,7 @@
       <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" ht="99">
-      <c r="A42" s="59"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="14" t="s">
         <v>524</v>
       </c>
@@ -10167,7 +10933,7 @@
       <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" ht="33">
-      <c r="A43" s="59"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="14" t="s">
         <v>524</v>
       </c>
@@ -10187,7 +10953,7 @@
       <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" ht="49.5">
-      <c r="A44" s="59"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="14" t="s">
         <v>525</v>
       </c>
@@ -10207,7 +10973,7 @@
       <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" ht="82.5">
-      <c r="A45" s="59"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="14" t="s">
         <v>543</v>
       </c>
@@ -10227,7 +10993,7 @@
       <c r="H45" s="17"/>
     </row>
     <row r="46" spans="1:8" ht="82.5">
-      <c r="A46" s="59"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="14" t="s">
         <v>501</v>
       </c>
@@ -10247,7 +11013,7 @@
       <c r="H46" s="17"/>
     </row>
     <row r="47" spans="1:8" ht="82.5">
-      <c r="A47" s="59"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="14" t="s">
         <v>501</v>
       </c>
@@ -10267,7 +11033,7 @@
       <c r="H47" s="17"/>
     </row>
     <row r="48" spans="1:8" ht="33">
-      <c r="A48" s="59"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="14" t="s">
         <v>295</v>
       </c>
@@ -10287,7 +11053,7 @@
       <c r="H48" s="17"/>
     </row>
     <row r="49" spans="1:8" s="42" customFormat="1" ht="82.5">
-      <c r="A49" s="59"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="39" t="s">
         <v>296</v>
       </c>
@@ -10304,10 +11070,10 @@
         <v>516</v>
       </c>
       <c r="G49" s="36"/>
-      <c r="H49" s="50"/>
+      <c r="H49" s="49"/>
     </row>
     <row r="50" spans="1:8" ht="82.5">
-      <c r="A50" s="59"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="14" t="s">
         <v>305</v>
       </c>
@@ -10327,7 +11093,7 @@
       <c r="H50" s="17"/>
     </row>
     <row r="51" spans="1:8" ht="115.5">
-      <c r="A51" s="59"/>
+      <c r="A51" s="61"/>
       <c r="B51" s="14" t="s">
         <v>519</v>
       </c>
@@ -10347,7 +11113,7 @@
       <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8" ht="33">
-      <c r="A52" s="59"/>
+      <c r="A52" s="61"/>
       <c r="B52" s="14" t="s">
         <v>306</v>
       </c>
@@ -10367,7 +11133,7 @@
       <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8" s="45" customFormat="1" ht="33">
-      <c r="A53" s="59"/>
+      <c r="A53" s="61"/>
       <c r="B53" s="43" t="s">
         <v>307</v>
       </c>
@@ -10384,10 +11150,10 @@
         <v>537</v>
       </c>
       <c r="G53" s="44"/>
-      <c r="H53" s="51"/>
+      <c r="H53" s="50"/>
     </row>
     <row r="54" spans="1:8" ht="148.5">
-      <c r="A54" s="59"/>
+      <c r="A54" s="61"/>
       <c r="B54" s="14" t="s">
         <v>308</v>
       </c>
@@ -10407,7 +11173,7 @@
       <c r="H54" s="17"/>
     </row>
     <row r="55" spans="1:8" ht="66">
-      <c r="A55" s="59"/>
+      <c r="A55" s="61"/>
       <c r="B55" s="14" t="s">
         <v>523</v>
       </c>
@@ -10427,7 +11193,7 @@
       <c r="H55" s="17"/>
     </row>
     <row r="56" spans="1:8" ht="66">
-      <c r="A56" s="59"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="14" t="s">
         <v>523</v>
       </c>
@@ -10447,7 +11213,7 @@
       <c r="H56" s="17"/>
     </row>
     <row r="57" spans="1:8" ht="49.5">
-      <c r="A57" s="59"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="14" t="s">
         <v>314</v>
       </c>
@@ -10467,7 +11233,7 @@
       <c r="H57" s="17"/>
     </row>
     <row r="58" spans="1:8" s="42" customFormat="1" ht="33">
-      <c r="A58" s="59"/>
+      <c r="A58" s="61"/>
       <c r="B58" s="39" t="s">
         <v>464</v>
       </c>
@@ -10484,10 +11250,10 @@
         <v>463</v>
       </c>
       <c r="G58" s="36"/>
-      <c r="H58" s="50"/>
+      <c r="H58" s="49"/>
     </row>
     <row r="59" spans="1:8" ht="33">
-      <c r="A59" s="59"/>
+      <c r="A59" s="61"/>
       <c r="B59" s="36" t="s">
         <v>549</v>
       </c>
@@ -10507,7 +11273,7 @@
       <c r="H59" s="17"/>
     </row>
     <row r="60" spans="1:8" ht="33">
-      <c r="A60" s="59"/>
+      <c r="A60" s="61"/>
       <c r="B60" s="14" t="s">
         <v>315</v>
       </c>
@@ -10527,7 +11293,7 @@
       <c r="H60" s="17"/>
     </row>
     <row r="61" spans="1:8" ht="33">
-      <c r="A61" s="59"/>
+      <c r="A61" s="61"/>
       <c r="B61" s="14" t="s">
         <v>379</v>
       </c>
@@ -10547,7 +11313,7 @@
       <c r="H61" s="17"/>
     </row>
     <row r="62" spans="1:8" ht="33">
-      <c r="A62" s="59"/>
+      <c r="A62" s="61"/>
       <c r="B62" s="14" t="s">
         <v>382</v>
       </c>
@@ -10567,7 +11333,7 @@
       <c r="H62" s="17"/>
     </row>
     <row r="63" spans="1:8" ht="66">
-      <c r="A63" s="59"/>
+      <c r="A63" s="61"/>
       <c r="B63" s="14" t="s">
         <v>323</v>
       </c>
@@ -10584,10 +11350,10 @@
         <v>321</v>
       </c>
       <c r="G63" s="15"/>
-      <c r="H63" s="52"/>
+      <c r="H63" s="51"/>
     </row>
     <row r="64" spans="1:8" ht="33">
-      <c r="A64" s="59"/>
+      <c r="A64" s="61"/>
       <c r="B64" s="14" t="s">
         <v>388</v>
       </c>
@@ -10598,16 +11364,16 @@
         <v>22</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>781</v>
+        <v>745</v>
       </c>
       <c r="F64" s="15" t="s">
         <v>389</v>
       </c>
       <c r="G64" s="15"/>
-      <c r="H64" s="52"/>
+      <c r="H64" s="51"/>
     </row>
     <row r="65" spans="1:8" ht="99">
-      <c r="A65" s="59"/>
+      <c r="A65" s="61"/>
       <c r="B65" s="14" t="s">
         <v>477</v>
       </c>
@@ -10621,13 +11387,13 @@
         <v>322</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>735</v>
+        <v>699</v>
       </c>
       <c r="G65" s="15"/>
-      <c r="H65" s="52"/>
+      <c r="H65" s="51"/>
     </row>
     <row r="66" spans="1:8" ht="33">
-      <c r="A66" s="59"/>
+      <c r="A66" s="61"/>
       <c r="B66" s="14" t="s">
         <v>478</v>
       </c>
@@ -10641,18 +11407,18 @@
         <v>479</v>
       </c>
       <c r="F66" s="33" t="s">
-        <v>734</v>
+        <v>698</v>
       </c>
       <c r="G66" s="15"/>
-      <c r="H66" s="52"/>
+      <c r="H66" s="51"/>
     </row>
     <row r="67" spans="1:8" ht="49.5">
-      <c r="A67" s="59"/>
+      <c r="A67" s="61"/>
       <c r="B67" s="14" t="s">
         <v>361</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="D67" s="15" t="s">
         <v>22</v>
@@ -10664,15 +11430,15 @@
         <v>375</v>
       </c>
       <c r="G67" s="15"/>
-      <c r="H67" s="52"/>
+      <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="33">
-      <c r="A68" s="59"/>
+      <c r="A68" s="61"/>
       <c r="B68" s="14" t="s">
         <v>372</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="D68" s="15" t="s">
         <v>22</v>
@@ -10684,50 +11450,50 @@
         <v>376</v>
       </c>
       <c r="G68" s="15"/>
-      <c r="H68" s="52"/>
+      <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="49.5">
-      <c r="A69" s="59"/>
+      <c r="A69" s="61"/>
       <c r="B69" s="14" t="s">
-        <v>743</v>
+        <v>707</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="33" t="s">
-        <v>745</v>
+        <v>709</v>
       </c>
       <c r="F69" s="33" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="G69" s="15"/>
-      <c r="H69" s="52"/>
+      <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="49.5">
-      <c r="A70" s="59"/>
+      <c r="A70" s="61"/>
       <c r="B70" s="14" t="s">
-        <v>746</v>
+        <v>710</v>
       </c>
       <c r="C70" s="33" t="s">
-        <v>733</v>
+        <v>697</v>
       </c>
       <c r="D70" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E70" s="33" t="s">
-        <v>747</v>
+        <v>711</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>744</v>
+        <v>708</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="52"/>
+      <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="33">
-      <c r="A71" s="59"/>
+      <c r="A71" s="61"/>
       <c r="B71" s="14" t="s">
         <v>373</v>
       </c>
@@ -10744,12 +11510,12 @@
         <v>669</v>
       </c>
       <c r="G71" s="15"/>
-      <c r="H71" s="52"/>
+      <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="82.5">
-      <c r="A72" s="59"/>
+      <c r="A72" s="61"/>
       <c r="B72" s="14" t="s">
-        <v>736</v>
+        <v>700</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>550</v>
@@ -10758,36 +11524,36 @@
         <v>22</v>
       </c>
       <c r="E72" s="33" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
       <c r="G72" s="15"/>
-      <c r="H72" s="52"/>
+      <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="82.5">
-      <c r="A73" s="59"/>
+      <c r="A73" s="61"/>
       <c r="B73" s="14" t="s">
-        <v>740</v>
+        <v>704</v>
       </c>
       <c r="C73" s="33" t="s">
-        <v>741</v>
+        <v>705</v>
       </c>
       <c r="D73" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>742</v>
+        <v>706</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>759</v>
+        <v>723</v>
       </c>
       <c r="G73" s="15"/>
-      <c r="H73" s="52"/>
+      <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="33">
-      <c r="A74" s="59"/>
+      <c r="A74" s="61"/>
       <c r="B74" s="14" t="s">
         <v>374</v>
       </c>
@@ -10804,12 +11570,12 @@
         <v>376</v>
       </c>
       <c r="G74" s="15"/>
-      <c r="H74" s="52"/>
+      <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="82.5">
-      <c r="A75" s="59"/>
+      <c r="A75" s="61"/>
       <c r="B75" s="14" t="s">
-        <v>737</v>
+        <v>701</v>
       </c>
       <c r="C75" s="33" t="s">
         <v>377</v>
@@ -10818,13 +11584,13 @@
         <v>22</v>
       </c>
       <c r="E75" s="33" t="s">
-        <v>738</v>
+        <v>702</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>739</v>
+        <v>703</v>
       </c>
       <c r="G75" s="15"/>
-      <c r="H75" s="52"/>
+      <c r="H75" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10832,10 +11598,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G75">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10849,7 +11615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G14"/>
   <sheetViews>
@@ -10892,7 +11658,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="132">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>97</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -10913,7 +11679,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="132">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -10932,7 +11698,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" ht="82.5">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="14" t="s">
         <v>16</v>
       </c>
@@ -10951,7 +11717,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
@@ -10970,7 +11736,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="14" t="s">
         <v>15</v>
       </c>
@@ -10989,7 +11755,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14" t="s">
         <v>17</v>
       </c>
@@ -11002,13 +11768,13 @@
       <c r="E7" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="61" t="s">
         <v>172</v>
       </c>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" s="10" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="14" t="s">
         <v>54</v>
       </c>
@@ -11021,11 +11787,11 @@
       <c r="E8" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="59"/>
+      <c r="F8" s="61"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" s="10" customFormat="1" ht="132" customHeight="1">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="14" t="s">
         <v>55</v>
       </c>
@@ -11035,16 +11801,16 @@
       <c r="D9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="61" t="s">
         <v>174</v>
       </c>
       <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="99" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="14" t="s">
         <v>56</v>
       </c>
@@ -11054,12 +11820,12 @@
       <c r="D10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="99" customHeight="1">
-      <c r="A11" s="59"/>
+      <c r="A11" s="61"/>
       <c r="B11" s="14" t="s">
         <v>163</v>
       </c>
@@ -11069,8 +11835,8 @@
       <c r="D11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1">
@@ -11085,7 +11851,7 @@
       <c r="G12" s="22"/>
     </row>
     <row r="13" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="62" t="s">
         <v>342</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -11106,7 +11872,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="33">
-      <c r="A14" s="61"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="26" t="s">
         <v>330</v>
       </c>
@@ -11134,10 +11900,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="101" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11154,7 +11920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -11197,7 +11963,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="99">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11218,7 +11984,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -11237,7 +12003,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="49.5">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -11256,7 +12022,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="49.5">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -11275,7 +12041,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="49.5">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -11294,7 +12060,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="33">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -11324,7 +12090,7 @@
       <c r="G8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="132">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>331</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -11345,7 +12111,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A10" s="57"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="14" t="s">
         <v>332</v>
       </c>
@@ -11364,7 +12130,7 @@
       <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="14" t="s">
         <v>56</v>
       </c>
@@ -11383,7 +12149,7 @@
       <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" s="10" customFormat="1" ht="66">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="14" t="s">
         <v>163</v>
       </c>
@@ -11413,7 +12179,7 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" s="10" customFormat="1" ht="49.5">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="58" t="s">
         <v>340</v>
       </c>
       <c r="B14" s="14" t="s">
@@ -11434,7 +12200,7 @@
       <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" s="10" customFormat="1" ht="99">
-      <c r="A15" s="57"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="14" t="s">
         <v>333</v>
       </c>
@@ -11453,7 +12219,7 @@
       <c r="G15" s="23"/>
     </row>
     <row r="16" spans="1:7" s="10" customFormat="1" ht="82.5">
-      <c r="A16" s="58"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="14" t="s">
         <v>333</v>
       </c>
@@ -11479,10 +12245,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="99" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11502,12 +12268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11546,7 +12312,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.5">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>96</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11567,7 +12333,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -11586,7 +12352,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="49.5">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -11605,7 +12371,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="5" t="s">
         <v>66</v>
       </c>
@@ -11629,7 +12395,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="61" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="14" t="s">
@@ -11650,7 +12416,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="66">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="14" t="s">
         <v>210</v>
       </c>
@@ -11669,7 +12435,7 @@
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="59"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
@@ -11686,10 +12452,10 @@
         <v>217</v>
       </c>
       <c r="G9" s="15"/>
-      <c r="H9" s="62"/>
+      <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="59"/>
+      <c r="A10" s="61"/>
       <c r="B10" s="14" t="s">
         <v>252</v>
       </c>
@@ -11706,7 +12472,7 @@
         <v>216</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1">
       <c r="A11" s="27" t="s">
@@ -11721,7 +12487,7 @@
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="65" t="s">
         <v>349</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -11743,7 +12509,7 @@
       <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:8" ht="82.5">
-      <c r="A13" s="64"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="26" t="s">
         <v>270</v>
       </c>
@@ -11762,7 +12528,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A14" s="64"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="26" t="s">
         <v>271</v>
       </c>
@@ -11789,42 +12555,42 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G5 H9:H12 G7:G1048576">
-    <cfRule type="cellIs" dxfId="97" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="95" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="91" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="cellIs" dxfId="89" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11844,7 +12610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U13"/>
   <sheetViews>
@@ -11887,7 +12653,7 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="148.5">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="58" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -11908,7 +12674,7 @@
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:21" ht="132">
-      <c r="A3" s="57"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
@@ -11927,7 +12693,7 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:21" ht="148.5">
-      <c r="A4" s="57"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -11946,7 +12712,7 @@
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:21" ht="148.5">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
@@ -11965,7 +12731,7 @@
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:21" ht="82.5">
-      <c r="A6" s="57"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -11984,7 +12750,7 @@
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:21" ht="49.5">
-      <c r="A7" s="57"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
@@ -12003,7 +12769,7 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:21" ht="49.5">
-      <c r="A8" s="57"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="5" t="s">
         <v>54</v>
       </c>
@@ -12022,7 +12788,7 @@
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:21" ht="66">
-      <c r="A9" s="57"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="5" t="s">
         <v>55</v>
       </c>
@@ -12041,7 +12807,7 @@
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:21" ht="33">
-      <c r="A10" s="58"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="5" t="s">
         <v>56</v>
       </c>
@@ -12085,7 +12851,7 @@
       <c r="U11" s="30"/>
     </row>
     <row r="12" spans="1:21" ht="33">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="67" t="s">
         <v>336</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -12106,7 +12872,7 @@
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:21" ht="66">
-      <c r="A13" s="66"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="26" t="s">
         <v>271</v>
       </c>
@@ -12131,34 +12897,34 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="87" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="9" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="10" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="85" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="6" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="83" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="4" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="81" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="2" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12178,7 +12944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -12222,7 +12988,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="61" t="s">
         <v>100</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -12243,7 +13009,7 @@
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:8" ht="82.5">
-      <c r="A3" s="59"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
@@ -12262,7 +13028,7 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:8" s="10" customFormat="1" ht="82.5">
-      <c r="A4" s="59"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
@@ -12281,7 +13047,7 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:8" ht="66">
-      <c r="A5" s="59"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="14" t="s">
         <v>16</v>
       </c>
@@ -12300,7 +13066,7 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="59"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -12319,7 +13085,7 @@
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="59"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
@@ -12338,7 +13104,7 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:8" s="10" customFormat="1" ht="66">
-      <c r="A8" s="59"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
@@ -12368,7 +13134,7 @@
       <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="58" t="s">
         <v>335</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -12387,10 +13153,10 @@
         <v>436</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="62"/>
+      <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="66">
-      <c r="A11" s="57"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="26" t="s">
         <v>252</v>
       </c>
@@ -12407,10 +13173,10 @@
         <v>435</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="62"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8" ht="99">
-      <c r="A12" s="58"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="26" t="s">
         <v>253</v>
       </c>
@@ -12427,7 +13193,7 @@
         <v>445</v>
       </c>
       <c r="G12" s="17"/>
-      <c r="H12" s="62"/>
+      <c r="H12" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12437,10 +13203,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="H10:H12 G1:G1048576 G11:H11">
-    <cfRule type="cellIs" dxfId="79" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="13" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="14" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12458,339 +13224,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="61.875" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="66">
-      <c r="A2" s="59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" ht="66">
-      <c r="A3" s="59"/>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" ht="82.5">
-      <c r="A4" s="59"/>
-      <c r="B4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="1:8" ht="82.5">
-      <c r="A5" s="59"/>
-      <c r="B5" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="15"/>
-    </row>
-    <row r="6" spans="1:8" ht="66">
-      <c r="A6" s="59"/>
-      <c r="B6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:8" ht="66">
-      <c r="A7" s="59"/>
-      <c r="B7" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:8" ht="33">
-      <c r="A8" s="31" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:8" ht="66">
-      <c r="A9" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:8" ht="66">
-      <c r="A10" s="57"/>
-      <c r="B10" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>439</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:8" ht="99">
-      <c r="A11" s="58"/>
-      <c r="B11" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="62"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="H9:H11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="cellIs" dxfId="77" priority="21" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="22" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9:H10">
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="73" priority="15" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="16" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="69" priority="11" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="12" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="10" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="65" priority="7" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="8" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="63" priority="5" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="6" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="4" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9:H11">
-    <cfRule type="cellIs" dxfId="59" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="2" operator="equal">
-      <formula>"P"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="D1:D8 D12:D1048576">
-      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"N,F,P"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D9:D11">
-      <formula1>"测试设备已联网(不关心网络环境),测试设备未联网,测试设备连接可用Wifi,测试设备连接2G,测试设备连接3G,测试设备连接无外网Wifi"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>